--- a/cov_rate(2018  using 2019).xlsx
+++ b/cov_rate(2018  using 2019).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>Row</t>
   </si>
@@ -161,11 +161,17 @@
   <si>
     <t>Time Speed</t>
   </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>absolute mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,12 +181,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,9 +228,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-VE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -254,7 +267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -440,7 +453,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1A4C-4465-9F81-2FA9954039C4}"/>
             </c:ext>
@@ -622,7 +635,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1A4C-4465-9F81-2FA9954039C4}"/>
             </c:ext>
@@ -804,7 +817,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A4C-4465-9F81-2FA9954039C4}"/>
             </c:ext>
@@ -986,7 +999,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1A4C-4465-9F81-2FA9954039C4}"/>
             </c:ext>
@@ -1168,7 +1181,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1A4C-4465-9F81-2FA9954039C4}"/>
             </c:ext>
@@ -1228,7 +1241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="43255680"/>
@@ -1287,7 +1300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="43253760"/>
@@ -1329,7 +1342,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1359,7 +1372,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-VE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1371,9 +1384,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-VE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1418,7 +1431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1604,7 +1617,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -1786,7 +1799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -1968,7 +1981,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -2150,7 +2163,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -2332,7 +2345,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -2514,7 +2527,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -2702,7 +2715,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -2890,7 +2903,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D6F-4D15-8603-ED0BB24D0216}"/>
             </c:ext>
@@ -3078,7 +3091,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D6F-4D15-8603-ED0BB24D0216}"/>
             </c:ext>
@@ -3266,7 +3279,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4D6F-4D15-8603-ED0BB24D0216}"/>
             </c:ext>
@@ -3326,7 +3339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47926272"/>
@@ -3385,7 +3398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47924352"/>
@@ -3402,6 +3415,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3427,7 +3441,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3457,7 +3471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-VE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3469,9 +3483,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-VE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3483,7 +3497,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3621,7 +3634,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CC0-4FBD-AE35-6E68E8B68FA7}"/>
             </c:ext>
@@ -3680,7 +3693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47969792"/>
@@ -3739,7 +3752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47968256"/>
@@ -3780,7 +3793,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-VE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5570,7 +5583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5605,7 +5618,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6754,10 +6767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7495,6 +7508,96 @@
       </c>
       <c r="K21">
         <v>-0.95814636358397498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(B2:B21)</f>
+        <v>1.9192187821105535</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:E22" si="0">AVERAGE(C2:C21)</f>
+        <v>-0.23331718722178488</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.36317765569394389</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22" si="1">AVERAGE(F2:F21)</f>
+        <v>-0.78372988286496104</v>
+      </c>
+      <c r="G22" s="1">
+        <f>AVERAGE(G2:G21)</f>
+        <v>0.54992267177857967</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="2">AVERAGE(H2:H21)</f>
+        <v>0.19616499944464275</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ref="I22" si="3">AVERAGE(I2:I21)</f>
+        <v>-4.6647142510656199</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="4">AVERAGE(J2:J21)</f>
+        <v>-0.296996936453436</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22" si="5">AVERAGE(K2:K21)</f>
+        <v>-1.4391887163486019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <f>ABS(B22)</f>
+        <v>1.9192187821105535</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:K23" si="6">ABS(C22)</f>
+        <v>0.23331718722178488</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>0.36317765569394389</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>0.78372988286496104</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>0.54992267177857967</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0.19616499944464275</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>4.6647142510656199</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>0.296996936453436</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>1.4391887163486019</v>
       </c>
     </row>
   </sheetData>
@@ -7508,7 +7611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
